--- a/config/testcases/Report_BE.GP06SoundVocabMatching(Clone).xlsx
+++ b/config/testcases/Report_BE.GP06SoundVocabMatching(Clone).xlsx
@@ -202,7 +202,7 @@
     <t>waitForObjectContain</t>
   </si>
   <si>
-    <t>FxSource,AudioSource,clip,Drag the sound to the letter</t>
+    <t>FxSource,AudioSource,clip,Drag the sound to the</t>
   </si>
   <si>
     <t>getText</t>
@@ -480,10 +480,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1514,7 +1514,7 @@
       <c r="D10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="35" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="29"/>
@@ -1594,9 +1594,9 @@
       <c r="B12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="34"/>
       <c r="G12" s="37" t="s">
         <v>18</v>
@@ -1636,13 +1636,13 @@
       <c r="B13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>73</v>
       </c>
       <c r="F13" s="29"/>
@@ -1670,19 +1670,19 @@
       <c r="Z13" s="31"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="29"/>
@@ -1716,10 +1716,10 @@
       <c r="B15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="29" t="s">
@@ -7288,9 +7288,18 @@
       <c r="Z142" s="46"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="46"/>
-      <c r="B143" s="46"/>
-      <c r="C143" s="46"/>
+      <c r="A143" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="46"/>
       <c r="E143" s="46"/>
       <c r="F143" s="46"/>
@@ -7316,9 +7325,15 @@
       <c r="Z143" s="46"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="46"/>
+      <c r="A144" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
+      <c r="C144" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="46"/>
       <c r="E144" s="46"/>
       <c r="F144" s="46"/>
@@ -7344,9 +7359,18 @@
       <c r="Z144" s="46"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="46"/>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
+      <c r="A145" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
       <c r="F145" s="46"/>
@@ -7372,9 +7396,15 @@
       <c r="Z145" s="46"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="46"/>
+      <c r="A146" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
+      <c r="C146" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
       <c r="F146" s="46"/>
@@ -7400,7 +7430,10 @@
       <c r="Z146" s="46"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="46"/>
+      <c r="A147" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="46"/>
       <c r="C147" s="46"/>
       <c r="D147" s="46"/>
@@ -7428,7 +7461,10 @@
       <c r="Z147" s="46"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="46"/>
+      <c r="A148" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="46"/>
       <c r="C148" s="46"/>
       <c r="D148" s="46"/>
@@ -7456,7 +7492,10 @@
       <c r="Z148" s="46"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="46"/>
+      <c r="A149" s="46" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="46"/>
       <c r="C149" s="46"/>
       <c r="D149" s="46"/>
